--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nmb-Nmbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nmb-Nmbr.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.485224666666666</v>
+        <v>2.401057</v>
       </c>
       <c r="H2">
-        <v>4.455673999999999</v>
+        <v>7.203171</v>
       </c>
       <c r="I2">
-        <v>0.09043055032436619</v>
+        <v>0.1471169379718001</v>
       </c>
       <c r="J2">
-        <v>0.09043055032436619</v>
+        <v>0.1471169379718</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09853933333333333</v>
+        <v>0.05595866666666666</v>
       </c>
       <c r="N2">
-        <v>0.295618</v>
+        <v>0.167876</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1463530485035555</v>
+        <v>0.1343599483106667</v>
       </c>
       <c r="R2">
-        <v>1.317177436532</v>
+        <v>1.209239534796</v>
       </c>
       <c r="S2">
-        <v>0.09043055032436619</v>
+        <v>0.1471169379718001</v>
       </c>
       <c r="T2">
-        <v>0.09043055032436619</v>
+        <v>0.1471169379718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -611,10 +611,10 @@
         <v>26.247183</v>
       </c>
       <c r="I3">
-        <v>0.5327021687749932</v>
+        <v>0.5360701826106148</v>
       </c>
       <c r="J3">
-        <v>0.5327021687749932</v>
+        <v>0.5360701826106148</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,10 +623,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09853933333333333</v>
+        <v>0.05595866666666666</v>
       </c>
       <c r="N3">
-        <v>0.295618</v>
+        <v>0.167876</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.8621266382326666</v>
+        <v>0.4895857881453333</v>
       </c>
       <c r="R3">
-        <v>7.759139744094</v>
+        <v>4.406272093308</v>
       </c>
       <c r="S3">
-        <v>0.5327021687749932</v>
+        <v>0.5360701826106148</v>
       </c>
       <c r="T3">
-        <v>0.5327021687749932</v>
+        <v>0.5360701826106148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.701617666666667</v>
+        <v>1.618009</v>
       </c>
       <c r="H4">
-        <v>5.104853</v>
+        <v>4.854027</v>
       </c>
       <c r="I4">
-        <v>0.103606023716051</v>
+        <v>0.09913822524447119</v>
       </c>
       <c r="J4">
-        <v>0.103606023716051</v>
+        <v>0.09913822524447118</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09853933333333333</v>
+        <v>0.05595866666666666</v>
       </c>
       <c r="N4">
-        <v>0.295618</v>
+        <v>0.167876</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1676762704615555</v>
+        <v>0.09054162629466667</v>
       </c>
       <c r="R4">
-        <v>1.509086434154</v>
+        <v>0.814874636652</v>
       </c>
       <c r="S4">
-        <v>0.103606023716051</v>
+        <v>0.09913822524447119</v>
       </c>
       <c r="T4">
-        <v>0.103606023716051</v>
+        <v>0.09913822524447118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.531594666666667</v>
+        <v>0.9788783333333333</v>
       </c>
       <c r="H5">
-        <v>4.594784000000001</v>
+        <v>2.936635</v>
       </c>
       <c r="I5">
-        <v>0.09325387040021166</v>
+        <v>0.05997757781133019</v>
       </c>
       <c r="J5">
-        <v>0.09325387040021166</v>
+        <v>0.05997757781133017</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,10 +747,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09853933333333333</v>
+        <v>0.05595866666666666</v>
       </c>
       <c r="N5">
-        <v>0.295618</v>
+        <v>0.167876</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1509223173902222</v>
+        <v>0.05477672636222222</v>
       </c>
       <c r="R5">
-        <v>1.358300856512</v>
+        <v>0.49299053726</v>
       </c>
       <c r="S5">
-        <v>0.09325387040021166</v>
+        <v>0.05997757781133019</v>
       </c>
       <c r="T5">
-        <v>0.09325387040021166</v>
+        <v>0.05997757781133017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.670896666666666</v>
+        <v>2.140127</v>
       </c>
       <c r="H6">
-        <v>8.012689999999999</v>
+        <v>6.420381</v>
       </c>
       <c r="I6">
-        <v>0.1626223027713755</v>
+        <v>0.1311293030989163</v>
       </c>
       <c r="J6">
-        <v>0.1626223027713755</v>
+        <v>0.1311293030989162</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09853933333333333</v>
+        <v>0.05595866666666666</v>
       </c>
       <c r="N6">
-        <v>0.295618</v>
+        <v>0.167876</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.2631883769355555</v>
+        <v>0.1197586534173333</v>
       </c>
       <c r="R6">
-        <v>2.36869539242</v>
+        <v>1.077827880756</v>
       </c>
       <c r="S6">
-        <v>0.1626223027713755</v>
+        <v>0.1311293030989163</v>
       </c>
       <c r="T6">
-        <v>0.1626223027713755</v>
+        <v>0.1311293030989162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2855313333333334</v>
+        <v>0.4336056666666666</v>
       </c>
       <c r="H7">
-        <v>0.8565940000000001</v>
+        <v>1.300817</v>
       </c>
       <c r="I7">
-        <v>0.01738508401300233</v>
+        <v>0.02656777326286756</v>
       </c>
       <c r="J7">
-        <v>0.01738508401300233</v>
+        <v>0.02656777326286756</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09853933333333333</v>
+        <v>0.05595866666666666</v>
       </c>
       <c r="N7">
-        <v>0.295618</v>
+        <v>0.167876</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.02813606723244445</v>
+        <v>0.02426399496577777</v>
       </c>
       <c r="R7">
-        <v>0.253224605092</v>
+        <v>0.218375954692</v>
       </c>
       <c r="S7">
-        <v>0.01738508401300233</v>
+        <v>0.02656777326286756</v>
       </c>
       <c r="T7">
-        <v>0.01738508401300233</v>
+        <v>0.02656777326286756</v>
       </c>
     </row>
   </sheetData>
